--- a/packages/central-server/__tests__/importers/programs-charting-complex-multiple-invalid.xlsx
+++ b/packages/central-server/__tests__/importers/programs-charting-complex-multiple-invalid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>programName</t>
   </si>
@@ -133,9 +133,6 @@
     <t>visibilityStatus</t>
   </si>
   <si>
-    <t>testchartcorecode0</t>
-  </si>
-  <si>
     <t>ComplexChartInstanceName</t>
   </si>
   <si>
@@ -145,18 +142,12 @@
     <t>current</t>
   </si>
   <si>
-    <t>testchartcorecode1</t>
-  </si>
-  <si>
     <t>ComplexChartDate</t>
   </si>
   <si>
     <t>Date of onset</t>
   </si>
   <si>
-    <t>testchartcorecode2</t>
-  </si>
-  <si>
     <t>ComplexChartType</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>{"One": "One", "Two": "Two", "Three": "Three", "Four": "Four"}</t>
   </si>
   <si>
-    <t>testchartcorecode3</t>
-  </si>
-  <si>
     <t>ComplexChartSubtype</t>
   </si>
   <si>
@@ -178,7 +166,7 @@
     <t>historical</t>
   </si>
   <si>
-    <t>testchartcode0</t>
+    <t>PatientChartingDate</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -568,10 +556,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -585,10 +573,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1674,70 +1662,70 @@
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -2814,62 +2802,62 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
+      <c r="A2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -3946,60 +3934,60 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
+      <c r="A2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
